--- a/exports/employees.xlsx
+++ b/exports/employees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="163">
   <si>
     <t>Sl_No</t>
   </si>
@@ -477,6 +477,30 @@
   </si>
   <si>
     <t>TEST002</t>
+  </si>
+  <si>
+    <t>TEST012</t>
+  </si>
+  <si>
+    <t>EMP12345</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>DEVELOPER</t>
+  </si>
+  <si>
+    <t>TEST003</t>
+  </si>
+  <si>
+    <t>TEST005</t>
+  </si>
+  <si>
+    <t>E123456</t>
+  </si>
+  <si>
+    <t>Ranji</t>
   </si>
 </sst>
 </file>
@@ -521,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1583,6 +1607,76 @@
         <v>6</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="n" s="0">
+        <v>75.0</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="0">
+        <v>76.0</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="0">
+        <v>77.0</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="0">
+        <v>78.0</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="0">
+        <v>79.0</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
